--- a/in.xlsx
+++ b/in.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\xbrlSEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7510"/>
   </bookViews>
   <sheets>
-    <sheet name="descr" sheetId="5" r:id="rId1"/>
+    <sheet name="descr" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>HES</t>
+  </si>
+  <si>
     <t>Assets</t>
   </si>
   <si>
@@ -31,18 +43,6 @@
   </si>
   <si>
     <t>TotalRevenuesAndOtherIncome</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>HES</t>
   </si>
 </sst>
 </file>
@@ -122,11 +122,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -134,21 +133,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -450,38 +437,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.90625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="8.7265625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -498,7 +487,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -515,7 +504,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -527,12 +516,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -541,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -549,6 +538,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>